--- a/biology/Microbiologie/Negativicoccus/Negativicoccus.xlsx
+++ b/biology/Microbiologie/Negativicoccus/Negativicoccus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Negativicoccus est un genre de bactéries gram négatives de la famille des Veillonellaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces bactéries gram négatives ont une forme de coques de 0,4 µM de diamètre[1]. Après 48 h de croissance sur milieu Columbia blood, les colonies sont petites, circulaires, convexes et translucides avec un diamètre n'excédant pas les 0,5 µM[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries gram négatives ont une forme de coques de 0,4 µM de diamètre. Après 48 h de croissance sur milieu Columbia blood, les colonies sont petites, circulaires, convexes et translucides avec un diamètre n'excédant pas les 0,5 µM
 </t>
         </is>
       </c>
@@ -542,18 +556,131 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Negativicoccus Marchandin et al. 2010[2].
-L'espèce type est : Negativicoccus succinicivorans Marchandin et al. 2010[2].
-Étymologie
-L'étymologie de ce genre est la suivante : Ne.ga.ti.vi.coc’cus. L. masc. adj. negativus, négatif; N.L. masc. n. coccus, grain ou baie; de Gr. masc. n. kokkos, grain; N.L. masc. n. Negativicoccus, coque avec une paroi cellulaire typique des structures Gram-negatives avec une membrane externe observée au microscope électronique[3].
-Liste des espèces
-Espèce valide
-Selon LPSN  (27 juin 2023)[2], le genre Negativicoccus comprend deux espèces dont une seulement publié de manière valide :
-Negativicoccus succinicivorans Marchandin et al. 2010
-Espèce publiée de manière non valide
-Negativicoccus massiliensis Togo et al. 2016</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Negativicoccus Marchandin et al. 2010.
+L'espèce type est : Negativicoccus succinicivorans Marchandin et al. 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Negativicoccus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Negativicoccus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre est la suivante : Ne.ga.ti.vi.coc’cus. L. masc. adj. negativus, négatif; N.L. masc. n. coccus, grain ou baie; de Gr. masc. n. kokkos, grain; N.L. masc. n. Negativicoccus, coque avec une paroi cellulaire typique des structures Gram-negatives avec une membrane externe observée au microscope électronique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Negativicoccus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Negativicoccus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Espèce valide</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), le genre Negativicoccus comprend deux espèces dont une seulement publié de manière valide :
+Negativicoccus succinicivorans Marchandin et al. 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Negativicoccus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Negativicoccus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèce publiée de manière non valide</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Negativicoccus massiliensis Togo et al. 2016</t>
         </is>
       </c>
     </row>
